--- a/biology/Médecine/Un_combat_pour_la_vie/Un_combat_pour_la_vie.xlsx
+++ b/biology/Médecine/Un_combat_pour_la_vie/Un_combat_pour_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Un combat pour la vie (Living Proof) est un téléfilm américain réalisé par Dan Ireland, diffusé le 18 octobre 2008[1] sur Lifetime.
+Un combat pour la vie (Living Proof) est un téléfilm américain réalisé par Dan Ireland, diffusé le 18 octobre 2008 sur Lifetime.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(Inspiré d'une histoire vraie)
 Le docteur Slamon est l'un des meilleurs chercheurs pour l'Université de Los Angeles. Depuis des années, Denny Slamon se consacre exclusivement à la lutte contre le cancer du sein. Ses recherches pour trouver un traitement contre ce fléau ont convaincu le monde médical. Et lorsqu'il développe un médicament expérimental, l'herceptine HER2, tout le monde retient son souffle. Il obtient l'autorisation de tester le médicament sur plusieurs patientes. Un jour, il apprend que la société pharmaceutique qui finance ses recherches lui retire son soutien. Abattu, Denny Slamon essaie de trouver d'autres donateurs...
@@ -544,13 +558,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Un combat pour la vie
 Titre original : Living Proof
 Réalisation : Dan Ireland (en)
 Scénario : Vivienne Radkoff, d'après un roman de Robert Bazell (en)
-Producteur exécutif : Renée Zellweger[2]
+Producteur exécutif : Renée Zellweger
 Genre : Comédie, Drame
 Pays :  États-Unis
 Date de sortie : 18 octobre 2008 (États-Unis), 21 janvier 2012 (France)</t>
@@ -581,22 +597,24 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Harry Connick Jr. : Dennis Slamon (en)[2]
-Paula Cale : Donna[3]
-Angie Harmon : Lilly Tartikoff[3]
-Bernadette Peters : Barbara[3]
-Amanda Bynes : Jamie[3]
-Regina King : Ellie Jackson[3]
-Tammy Blanchard : Nicole Wilson[3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Harry Connick Jr. : Dennis Slamon (en)
+Paula Cale : Donna
+Angie Harmon : Lilly Tartikoff
+Bernadette Peters : Barbara
+Amanda Bynes : Jamie
+Regina King : Ellie Jackson
+Tammy Blanchard : Nicole Wilson
 Amy Madigan : Fran Visco
-Swoosie Kurtz : Elizabeth[3]
+Swoosie Kurtz : Elizabeth
 Bruce McKinnon : Dean Bradfield
-John Benjamin Hickey : Blake Rogers[3]
+John Benjamin Hickey : Blake Rogers
 Jackson Hurst : Josh
-Jennifer Coolidge : Tish[3]
-Trudie Styler : Tina[3]
+Jennifer Coolidge : Tish
+Trudie Styler : Tina
 Evan Gamble : Peter Wilson
 Seth Kozak : Peter Hawn
 Louis Herthum : Dr Banks</t>
